--- a/biology/Biologie cellulaire et moléculaire/Arthur_Mourant/Arthur_Mourant.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Arthur_Mourant/Arthur_Mourant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Ernest Mourant, né le 11 avril 1904 dans la paroisse de Grouville et mort le 29 août 1994 à Saint-Sauveur, est un chimiste, biologiste, hématologue, généticien, anthropologue et géologue jersiais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Ernest Mourant naquit à La Hougue Bie, un lieu-dit de la paroisse de Grouville situé sur l'île Anglo-Normande de Jersey. Arthur Mourant fait des études supérieures au Collège d'Exeter de l'université d'Oxford. Quand il quitte Oxford, il échoue à trouver un poste dans sa discipline et retourne à sa maison d'enfance de Jersey, où il met en place un laboratoire de pathologie. Il étudie ensuite la médecine et la chirurgie au St Bartholomew's Hospital de l'université de Londres.
 Arthur Mourant dirige pendant une vingtaine d'années un laboratoire d'analyse sanguine. Arthur Mourant est un des pionniers dans l'étude de l'hématologie de la distribution dans le monde entier des groupes sanguins. Il contribue à la réalisation de la carte génétique du monde par l'étude et la classification des groupes sanguins dans de nombreuses populations et groupes ethniques. Il étudie l'anthropologie sous l'angle de la génétique.
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses nombreuses distinctions et reconnaissances.
 Il a gagné une bourse de la Royal Society;
